--- a/Stock-analyst/steel_valuation.xlsx
+++ b/Stock-analyst/steel_valuation.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1489"/>
+  <dimension ref="A1:D1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24263,6 +24263,22 @@
       </c>
       <c r="D1489" t="n">
         <v>6.7733349332</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>14.2338310613</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>1.6337590162</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>7.1634989369</v>
       </c>
     </row>
   </sheetData>
@@ -24276,7 +24292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1489"/>
+  <dimension ref="A1:D1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48112,6 +48128,22 @@
       </c>
       <c r="D1489" t="n">
         <v>6.7733349332</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>13.4948436356</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>0.8722958304</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>7.1634989369</v>
       </c>
     </row>
   </sheetData>
@@ -48125,7 +48157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1489"/>
+  <dimension ref="A1:D1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71963,6 +71995,22 @@
         <v>6.7733349332</v>
       </c>
     </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>26.2618058508</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>0.8799089932</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>7.1634989369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
